--- a/grupos/4APM - Estadisticos 20202.xlsx
+++ b/grupos/4APM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="134">
   <si>
     <t>Materia</t>
   </si>
@@ -200,151 +200,151 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ALEJO</t>
+  </si>
+  <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
     <t>CASTILLO</t>
   </si>
   <si>
+    <t>CESPEDES</t>
+  </si>
+  <si>
+    <t>CHIPAHUA</t>
+  </si>
+  <si>
+    <t>CHORA</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>ESTRADA</t>
+  </si>
+  <si>
+    <t>GARIBAY</t>
+  </si>
+  <si>
+    <t>GASPAR</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>HERAS</t>
+  </si>
+  <si>
+    <t>LADINO</t>
+  </si>
+  <si>
+    <t>LICEA</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>REYNOSO</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>ZUNO</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
     <t>SILVESTRE</t>
   </si>
   <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>PANZO</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>CASTAÑEDA</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>CELICEO</t>
+  </si>
+  <si>
+    <t>CALPULALPAN</t>
+  </si>
+  <si>
+    <t>HUESCA</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>ALCARAZ</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>LLAVE</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>RAUL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>JOSE LUIS</t>
+  </si>
+  <si>
     <t>MOISES URIEL</t>
-  </si>
-  <si>
-    <t>ALEJO</t>
-  </si>
-  <si>
-    <t>CARDENAS</t>
-  </si>
-  <si>
-    <t>CESPEDES</t>
-  </si>
-  <si>
-    <t>CHIPAHUA</t>
-  </si>
-  <si>
-    <t>CHORA</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>ESTRADA</t>
-  </si>
-  <si>
-    <t>GARIBAY</t>
-  </si>
-  <si>
-    <t>GASPAR</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>HERAS</t>
-  </si>
-  <si>
-    <t>LADINO</t>
-  </si>
-  <si>
-    <t>LICEA</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>REYNOSO</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>RICO</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>ZUNO</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>PANZO</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>CASTAÑEDA</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>CELICEO</t>
-  </si>
-  <si>
-    <t>CALPULALPAN</t>
-  </si>
-  <si>
-    <t>HUESCA</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>ALCARAZ</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>LLAVE</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>RAUL ALEJANDRO</t>
-  </si>
-  <si>
-    <t>JOSE LUIS</t>
   </si>
   <si>
     <t>ERICK MANUEL</t>
@@ -981,7 +981,7 @@
         <v>6</v>
       </c>
       <c r="U4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V4">
         <v>10</v>
@@ -1002,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="AB4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC4">
         <v>8</v>
@@ -1070,7 +1070,7 @@
         <v>7</v>
       </c>
       <c r="U5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V5">
         <v>8</v>
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L6">
         <v>6</v>
@@ -1144,13 +1144,13 @@
         <v>5</v>
       </c>
       <c r="P6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q6">
         <v>6</v>
       </c>
       <c r="R6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S6">
         <v>6</v>
@@ -1159,19 +1159,19 @@
         <v>5</v>
       </c>
       <c r="U6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V6">
         <v>8</v>
       </c>
       <c r="W6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X6">
         <v>6</v>
       </c>
       <c r="Y6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z6">
         <v>6</v>
@@ -1248,7 +1248,7 @@
         <v>7</v>
       </c>
       <c r="U7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V7">
         <v>10</v>
@@ -1337,7 +1337,7 @@
         <v>10</v>
       </c>
       <c r="U8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V8">
         <v>10</v>
@@ -1358,7 +1358,7 @@
         <v>9</v>
       </c>
       <c r="AB8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC8">
         <v>8</v>
@@ -1426,7 +1426,7 @@
         <v>6</v>
       </c>
       <c r="U9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V9">
         <v>10</v>
@@ -1515,7 +1515,7 @@
         <v>9</v>
       </c>
       <c r="U10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V10">
         <v>8</v>
@@ -1604,7 +1604,7 @@
         <v>8</v>
       </c>
       <c r="U11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V11">
         <v>10</v>
@@ -1693,7 +1693,7 @@
         <v>10</v>
       </c>
       <c r="U12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V12">
         <v>10</v>
@@ -1782,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="U13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V13">
         <v>8</v>
@@ -1871,7 +1871,7 @@
         <v>9</v>
       </c>
       <c r="U14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V14">
         <v>10</v>
@@ -1960,7 +1960,7 @@
         <v>5</v>
       </c>
       <c r="U15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V15">
         <v>8</v>
@@ -2049,7 +2049,7 @@
         <v>9</v>
       </c>
       <c r="U16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V16">
         <v>10</v>
@@ -2138,7 +2138,7 @@
         <v>7</v>
       </c>
       <c r="U17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V17">
         <v>9</v>
@@ -2159,7 +2159,7 @@
         <v>6</v>
       </c>
       <c r="AB17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC17">
         <v>6</v>
@@ -2227,7 +2227,7 @@
         <v>5</v>
       </c>
       <c r="U18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V18">
         <v>8</v>
@@ -2316,7 +2316,7 @@
         <v>6</v>
       </c>
       <c r="U19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V19">
         <v>8</v>
@@ -2405,7 +2405,7 @@
         <v>6</v>
       </c>
       <c r="U20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V20">
         <v>10</v>
@@ -2494,7 +2494,7 @@
         <v>5</v>
       </c>
       <c r="U21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V21">
         <v>8</v>
@@ -2583,7 +2583,7 @@
         <v>10</v>
       </c>
       <c r="U22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V22">
         <v>6</v>
@@ -2672,7 +2672,7 @@
         <v>9</v>
       </c>
       <c r="U23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V23">
         <v>8</v>
@@ -2761,7 +2761,7 @@
         <v>10</v>
       </c>
       <c r="U24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V24">
         <v>7</v>
@@ -2782,7 +2782,7 @@
         <v>9</v>
       </c>
       <c r="AB24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC24">
         <v>7</v>
@@ -2850,7 +2850,7 @@
         <v>10</v>
       </c>
       <c r="U25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V25">
         <v>9</v>
@@ -2939,7 +2939,7 @@
         <v>5</v>
       </c>
       <c r="U26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V26">
         <v>8</v>
@@ -3028,7 +3028,7 @@
         <v>8</v>
       </c>
       <c r="U27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V27">
         <v>10</v>
@@ -3117,7 +3117,7 @@
         <v>5</v>
       </c>
       <c r="U28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V28">
         <v>8</v>
@@ -3206,7 +3206,7 @@
         <v>6</v>
       </c>
       <c r="U29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V29">
         <v>5</v>
@@ -3295,7 +3295,7 @@
         <v>6</v>
       </c>
       <c r="U30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V30">
         <v>10</v>
@@ -3384,7 +3384,7 @@
         <v>5</v>
       </c>
       <c r="U31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V31">
         <v>8</v>
@@ -3587,10 +3587,10 @@
         <v>6.5</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>3.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3696,7 +3696,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3724,26 +3724,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>19330051920224</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3782,30 +3762,30 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920224</v>
+        <v>19330051920223</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920223</v>
+        <v>19330051920430</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
         <v>107</v>
@@ -3816,13 +3796,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920430</v>
+        <v>19330051920224</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
         <v>108</v>
@@ -3836,10 +3816,10 @@
         <v>19330051920225</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
         <v>109</v>
@@ -3853,10 +3833,10 @@
         <v>19330051920226</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
         <v>110</v>
@@ -3870,10 +3850,10 @@
         <v>19330051920227</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
         <v>111</v>
@@ -3887,10 +3867,10 @@
         <v>19330051920229</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
         <v>112</v>
@@ -3904,10 +3884,10 @@
         <v>19330051920230</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
         <v>113</v>
@@ -3921,10 +3901,10 @@
         <v>19330051920231</v>
       </c>
       <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
         <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
       </c>
       <c r="D10" t="s">
         <v>114</v>
@@ -3938,10 +3918,10 @@
         <v>19330051920232</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
         <v>115</v>
@@ -3955,10 +3935,10 @@
         <v>19330051920233</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
         <v>116</v>
@@ -3972,10 +3952,10 @@
         <v>19330051920234</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
         <v>117</v>
@@ -3989,10 +3969,10 @@
         <v>19330051920429</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
         <v>118</v>
@@ -4006,10 +3986,10 @@
         <v>19330051920235</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
         <v>119</v>
@@ -4023,10 +4003,10 @@
         <v>19330051920236</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
         <v>120</v>
@@ -4040,10 +4020,10 @@
         <v>19330051920237</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
         <v>121</v>
@@ -4057,10 +4037,10 @@
         <v>19330051920228</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
         <v>122</v>
@@ -4074,10 +4054,10 @@
         <v>19330051920238</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
         <v>123</v>
@@ -4091,10 +4071,10 @@
         <v>19330051420227</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
         <v>124</v>
@@ -4108,10 +4088,10 @@
         <v>19330051920404</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
         <v>125</v>
@@ -4125,10 +4105,10 @@
         <v>19330051920240</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
         <v>126</v>
@@ -4142,10 +4122,10 @@
         <v>19330051920239</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
         <v>127</v>
@@ -4159,10 +4139,10 @@
         <v>19330051920241</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
         <v>128</v>
@@ -4176,10 +4156,10 @@
         <v>19330051920242</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
         <v>129</v>
@@ -4193,10 +4173,10 @@
         <v>19330051920243</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
         <v>130</v>
@@ -4210,10 +4190,10 @@
         <v>19330051920244</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
         <v>131</v>
@@ -4227,10 +4207,10 @@
         <v>19330051920245</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
         <v>132</v>
@@ -4244,10 +4224,10 @@
         <v>19330051920425</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
         <v>133</v>
@@ -4301,10 +4281,10 @@
         <v>19330051920233</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
         <v>116</v>
@@ -4324,10 +4304,10 @@
         <v>19330051920233</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
         <v>116</v>
@@ -4347,10 +4327,10 @@
         <v>19330051920429</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
         <v>118</v>
@@ -4370,10 +4350,10 @@
         <v>19330051920429</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
         <v>118</v>
@@ -4393,10 +4373,10 @@
         <v>19330051920235</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
         <v>119</v>
@@ -4416,10 +4396,10 @@
         <v>19330051920235</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
         <v>119</v>
@@ -4439,10 +4419,10 @@
         <v>19330051920236</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
         <v>120</v>
@@ -4462,10 +4442,10 @@
         <v>19330051920237</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
         <v>121</v>
@@ -4485,10 +4465,10 @@
         <v>19330051920228</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
         <v>122</v>
@@ -4508,10 +4488,10 @@
         <v>19330051920244</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
         <v>131</v>

--- a/grupos/4APM - Estadisticos 20202.xlsx
+++ b/grupos/4APM - Estadisticos 20202.xlsx
@@ -170,22 +170,22 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Camarillo Aburto Raymundo</t>
+  </si>
+  <si>
+    <t>Ortega Valle Manuel</t>
+  </si>
+  <si>
+    <t>Herrera Serrano Mayra Iliana</t>
+  </si>
+  <si>
+    <t>Rodriguez Roman Marisol</t>
+  </si>
+  <si>
+    <t>Medina Tolentino Elio</t>
+  </si>
+  <si>
     <t>Avila Coronado Julieta</t>
-  </si>
-  <si>
-    <t>Camarillo Aburto Raymundo</t>
-  </si>
-  <si>
-    <t>Herrera Serrano Mayra Iliana</t>
-  </si>
-  <si>
-    <t>Ortega Valle Manuel</t>
-  </si>
-  <si>
-    <t>Rodriguez Roman Marisol</t>
-  </si>
-  <si>
-    <t>Medina Tolentino Elio</t>
   </si>
   <si>
     <t>NC</t>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -3476,19 +3476,19 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>57.14</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="G2">
-        <v>42.86</v>
+        <v>28.57</v>
       </c>
       <c r="H2">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -3508,19 +3508,19 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>67.86</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="G3">
-        <v>32.14</v>
+        <v>14.29</v>
       </c>
       <c r="H3">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3540,19 +3540,19 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>78.56999999999999</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="G4">
-        <v>21.43</v>
+        <v>3.57</v>
       </c>
       <c r="H4">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3563,28 +3563,28 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>28</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>78.56999999999999</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="G5">
-        <v>21.43</v>
+        <v>3.57</v>
       </c>
       <c r="H5">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3595,28 +3595,28 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>28</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>85.70999999999999</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="G6">
-        <v>14.29</v>
+        <v>3.57</v>
       </c>
       <c r="H6">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3627,10 +3627,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>28</v>
@@ -3648,7 +3648,7 @@
         <v>3.57</v>
       </c>
       <c r="H7">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -3668,19 +3668,19 @@
         <v>28</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>96.43000000000001</v>
+        <v>100</v>
       </c>
       <c r="G8">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -4273,24 +4273,24 @@
         <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920233</v>
+        <v>19330051920241</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>51</v>
@@ -4301,19 +4301,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920233</v>
+        <v>19330051920241</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -4324,19 +4324,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920429</v>
+        <v>19330051920243</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -4347,19 +4347,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920429</v>
+        <v>19330051920243</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -4370,42 +4370,42 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920235</v>
+        <v>19330051920425</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920235</v>
+        <v>19330051920425</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -4416,19 +4416,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920236</v>
+        <v>19330051920224</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -4439,19 +4439,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920237</v>
+        <v>19330051920231</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -4462,48 +4462,48 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920228</v>
+        <v>19330051920233</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>50</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920244</v>
+        <v>19330051920429</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
